--- a/import/places.xlsx
+++ b/import/places.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,22 +106,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abc@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,14 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1.jpg,p2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,7 +142,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,6</t>
+    <t>age_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23,244.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1).jpg,(2).jpg,(3).jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反送中示威至今沒有緩和跡象，零售業已首當其衝受影響，這次政府與市民之間的大矛盾，最終會對香港帶來怎樣的影響？熟悉金融界及內地國情的資深投資者林一鳴認為，政府事實上已沒有招數處理民憤，面對年輕一代完全沒有能力溝通，示威者的想法政府亦無可能改變，就算打算派糖收買人心，技術操作上都困難，始終土地供應有限，樓價高等住屋問題也解決不了。
+相關新聞：【Luke Sir心法】曾智華買股六戒：港股多垃圾 向中資、創板說不！
+「政府經過今次事件之後，幾件事我諗佢一定會做，第一就是加快『滲沙子』，1997年後多了很多國內人以不同途徑來香港定居，以前集中單程證多，通常是中低收入，宜家佢係輸入專才。」林一鳴指，香港年輕人將面對越來越多高學歷的內地專才，競爭力一定被削弱，以目前20至40歲的人口，約二至三成為內地新移民，他估計10年後佔比會大增至超過五成。
+「第二政府會加大大灣區發展，因為『滲沙』，一面入，另一面就出，政府會希望競爭力稍為差的年輕人去大灣區發展；第三，當香港人一路咁溝淡，無論中央或者香港政府，將來制定管治政策方面就會更加容易，因為支持政府的人會越來越多。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記者 鍾耀恆
+影片
+採訪：鍾耀恆、蘇承智
+編撰：蘇承智
+拍攝：陳海威
+剪接：崖云
+場地提供：如心艾朗酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +237,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -229,6 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,15 +545,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="23" max="23" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -556,61 +579,67 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" t="s">
-        <v>35</v>
-      </c>
       <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:27" ht="69" customHeight="1">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -621,77 +650,165 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>200</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1">
-        <v>12244</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="V2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="69" customHeight="1">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3">
+        <v>200</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2">
-        <v>200</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="V3" s="2"/>
+      <c r="W3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
         <v>25</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="T2" r:id="rId2"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="U3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
